--- a/Docs/GPIO Allocations.xlsx
+++ b/Docs/GPIO Allocations.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Boaz\source\Repos\IWG\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD54AF62-8D3F-4DEA-9157-578DA7881518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="13110"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Operational Indicator</t>
   </si>
@@ -24,58 +30,85 @@
     <t>SD CS</t>
   </si>
   <si>
-    <t>Unlocked Indicator</t>
-  </si>
-  <si>
     <t>Modem Recovery Indicator</t>
   </si>
   <si>
     <t>Router Recovery Indicator</t>
   </si>
   <si>
-    <t>Check Connectivity</t>
-  </si>
-  <si>
-    <t>Ethernet CS</t>
-  </si>
-  <si>
-    <t>Ethernet Reset</t>
-  </si>
-  <si>
-    <t>CLK</t>
-  </si>
-  <si>
-    <t>MISO</t>
-  </si>
-  <si>
-    <t>MOSI</t>
-  </si>
-  <si>
-    <t>Unlock</t>
-  </si>
-  <si>
-    <t>Modem recovery</t>
-  </si>
-  <si>
     <t>Modem Relay</t>
   </si>
   <si>
     <t>Router Relay</t>
   </si>
   <si>
-    <t>Router Recovery</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
     <t>Input</t>
+  </si>
+  <si>
+    <t>Unlock Indicator</t>
+  </si>
+  <si>
+    <t>TCK - Test Clock (JTAG)</t>
+  </si>
+  <si>
+    <t>TMS - Test Mode Select (JTAG)</t>
+  </si>
+  <si>
+    <t>TDI - Test Data In (JTAG)</t>
+  </si>
+  <si>
+    <t>TDO - Test Data Out (JTAG)</t>
+  </si>
+  <si>
+    <t>Ethernet (W5500) CS</t>
+  </si>
+  <si>
+    <t>Ethernet (W5500) Reset</t>
+  </si>
+  <si>
+    <t>CLK (SPI)</t>
+  </si>
+  <si>
+    <t>MISO (SPI)</t>
+  </si>
+  <si>
+    <t>MOSI (SPI)</t>
+  </si>
+  <si>
+    <t>Router Recovery Switch</t>
+  </si>
+  <si>
+    <t>Modem Recovery Switch</t>
+  </si>
+  <si>
+    <t>Unlock Switch</t>
+  </si>
+  <si>
+    <t>Connectivity Check Switch</t>
+  </si>
+  <si>
+    <t>Watchdog Trigger</t>
+  </si>
+  <si>
+    <t>Watchdog Statud</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,8 +138,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,14 +153,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -162,7 +201,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -234,7 +273,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -407,144 +446,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>11</v>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -565,7 +707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
